--- a/CIFAR-10 - Object Recognition in Images/ResultsLogRegStoch.xlsx
+++ b/CIFAR-10 - Object Recognition in Images/ResultsLogRegStoch.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Single Class Clasification" sheetId="1" r:id="rId1"/>
+    <sheet name="Multi Class Clasification" sheetId="2" r:id="rId2"/>
+    <sheet name="Classes Labels" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
   <si>
     <t>Score</t>
   </si>
@@ -24,19 +25,64 @@
     <t>Error</t>
   </si>
   <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>TS</t>
-  </si>
-  <si>
-    <t>LearningRate</t>
-  </si>
-  <si>
-    <t>Single class classif</t>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Seems High Bias</t>
+  </si>
+  <si>
+    <t>Seems High Variance</t>
+  </si>
+  <si>
+    <t>Training Set</t>
+  </si>
+  <si>
+    <t>Cross Validation Set</t>
+  </si>
+  <si>
+    <t>Iterations</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Total Size (60-20-20 division)</t>
+  </si>
+  <si>
+    <t>airplane</t>
+  </si>
+  <si>
+    <t>automobile</t>
+  </si>
+  <si>
+    <t>bird</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>deer</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>frog</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>ship</t>
+  </si>
+  <si>
+    <t>truck</t>
   </si>
 </sst>
 </file>
@@ -52,12 +98,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color rgb="FF555555"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -121,8 +165,27 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -130,47 +193,120 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,129 +608,432 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="12.42578125" style="1" customWidth="1"/>
-    <col min="5" max="6" width="13.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.65190000000000003</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="14">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9"/>
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="3">
-        <v>12000</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
+      <c r="C3" s="4">
+        <v>0.86</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.1305</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.31709999999999999</v>
+      </c>
+      <c r="F3" s="18"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.26469999999999999</v>
+      </c>
+      <c r="F4" s="19"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="G9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <v>5000</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.1009</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.4768</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.1552</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.25569999999999998</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0.28570000000000001</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="D16" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G16" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="H16" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <v>15000</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.85060000000000002</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.1444</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.1651</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.16320000000000001</v>
+      </c>
+      <c r="E18" s="4">
+        <v>9.4500000000000001E-2</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="D19" s="12">
+        <v>0.17230000000000001</v>
+      </c>
+      <c r="E19" s="20">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
-        <v>0.41439999999999999</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.35189999999999999</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.28570000000000001</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.28139999999999998</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.2107</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.19239999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="F22" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <v>28000</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>7.85E-2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>8.7300000000000003E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>9.0200000000000002E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>8.3199999999999996E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>7.0400000000000004E-2</v>
-      </c>
+      <c r="C23" s="3">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.15989999999999999</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.76949999999999996</v>
+      </c>
+      <c r="D24" s="11">
+        <v>0.22209999999999999</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.12470000000000001</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10"/>
+      <c r="B25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.77129999999999999</v>
+      </c>
+      <c r="D25" s="12">
+        <v>0.2215</v>
+      </c>
+      <c r="E25" s="20">
+        <v>0.1196</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:G1"/>
+  <mergeCells count="16">
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -615,12 +1054,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>